--- a/Income Statement - Dictionary.xlsx
+++ b/Income Statement - Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syahidhalid\Syahid_PC\Analytics - FAD\06. Management Account\Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\EXIM-Bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FE25E-49F9-4702-A08A-57E8B5E1A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51896BD9-8183-47D5-B482-EB583587AC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="4185" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyin" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6594" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6598" uniqueCount="897">
   <si>
     <t>GL_Code_</t>
   </si>
@@ -2740,6 +2740,9 @@
   </si>
   <si>
     <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>SJPP related expense</t>
   </si>
 </sst>
 </file>
@@ -3059,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B854"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A644" workbookViewId="0">
+      <selection activeCell="A665" sqref="A665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16137,8 +16140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DD7E36-2351-4815-B081-DF47E180F777}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E124" sqref="E2:E124"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17660,7 +17663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6C4574-FB63-4A3F-BC31-4C4525D33E6C}">
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -28504,10 +28507,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B4DD2C-496B-47FA-9286-8ED990E19077}">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32350,13 +32353,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>896</v>
       </c>
       <c r="B227">
-        <v>500400</v>
+        <v>5511201</v>
       </c>
       <c r="C227" t="s">
-        <v>849</v>
+        <v>896</v>
       </c>
       <c r="D227" t="s">
         <v>4</v>
@@ -32370,10 +32373,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B228">
-        <v>500401</v>
+        <v>500400</v>
       </c>
       <c r="C228" t="s">
         <v>849</v>
@@ -32385,6 +32388,23 @@
         <v>756</v>
       </c>
       <c r="F228" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>216</v>
+      </c>
+      <c r="B229">
+        <v>500401</v>
+      </c>
+      <c r="C229" t="s">
+        <v>849</v>
+      </c>
+      <c r="E229" t="s">
+        <v>756</v>
+      </c>
+      <c r="F229" t="s">
         <v>776</v>
       </c>
     </row>
@@ -32861,4 +32881,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{de3e0bd1-8a42-4fca-bd15-c152a08a9459}" enabled="1" method="Privileged" siteId="{d703bd9e-2913-4bf9-8dd7-49ce1b18bd11}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>